--- a/MINERIA DE DATOS - BANCOLOMBIA/pesos_originales.xlsx
+++ b/MINERIA DE DATOS - BANCOLOMBIA/pesos_originales.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
   <si>
     <t>pesos</t>
-  </si>
-  <si>
-    <t>Tiempo_empleo</t>
-  </si>
-  <si>
-    <t>Cuentas_otros</t>
   </si>
   <si>
     <t>Saldo_cuenta</t>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0477735615652427</v>
+        <v>0.8964045981451862</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3090071026493556</v>
+        <v>7.400411217016142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9936209864357362</v>
+        <v>8.735696266211297</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.879682471700106</v>
+        <v>23.95276990296236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.954889241286092</v>
+        <v>26.54363786528563</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,23 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>24.82664785638447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>28.32606263748606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>31.66231614249295</v>
+        <v>32.47108015037939</v>
       </c>
     </row>
   </sheetData>

--- a/MINERIA DE DATOS - BANCOLOMBIA/pesos_originales.xlsx
+++ b/MINERIA DE DATOS - BANCOLOMBIA/pesos_originales.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
   <si>
     <t>pesos</t>
-  </si>
-  <si>
-    <t>Tiempo_empleo</t>
-  </si>
-  <si>
-    <t>Cuentas_otros</t>
   </si>
   <si>
     <t>Saldo_cuenta</t>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0477735615652427</v>
+        <v>0.9630975132512807</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.3090071026493556</v>
+        <v>7.188731724415304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9936209864357362</v>
+        <v>7.840995860788995</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.879682471700106</v>
+        <v>24.60902392007472</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.954889241286092</v>
+        <v>28.07135907667559</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,23 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>24.82664785638447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>28.32606263748606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>31.66231614249295</v>
+        <v>31.32679190479411</v>
       </c>
     </row>
   </sheetData>
